--- a/design/Excel/excel/技能动作表_skillAction.xlsx
+++ b/design/Excel/excel/技能动作表_skillAction.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="cfg_skillAction" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>

--- a/design/Excel/excel/技能动作表_skillAction.xlsx
+++ b/design/Excel/excel/技能动作表_skillAction.xlsx
@@ -284,78 +284,149 @@
         </r>
       </text>
     </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+后摇时间节点。
+根据这个节点将整个后摇分为后摇A|后摇B</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+后摇A|后摇B之间播的动作。多个动作的话随机播</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>动作名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>前摇时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>后摇时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>动作类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>施法时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>引导时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>qianyaoTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>shifaTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>yindaoTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>houyaoTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>actionType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作衔接节点</t>
+  </si>
+  <si>
+    <t>衔接动作id</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>cohesionTime</t>
+  </si>
+  <si>
+    <t>cohesionAction</t>
+  </si>
+  <si>
+    <t>普攻1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,6 +444,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -419,6 +497,19 @@
       <color indexed="81"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -444,9 +535,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -745,18 +839,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="14.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -778,8 +875,18 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="2" spans="1:9">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -801,8 +908,14 @@
       <c r="G3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -824,9 +937,32 @@
       <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="H4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>500</v>
+      </c>
+      <c r="G5" s="1">
+        <v>500</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -841,7 +977,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -855,7 +991,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
